--- a/data/trans_orig/Q04B-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q04B-Dificultad-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>3.044500950134205</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>3.060981192434271</v>
+        <v>3.06098119243427</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>2.925596416514192</v>
@@ -693,7 +693,7 @@
         <v>3.043685457057296</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>3.057218322289356</v>
+        <v>3.057218322289355</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.83113075712176</v>
+        <v>2.831516608132941</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.885409306449398</v>
+        <v>2.879615759910569</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.996675299816804</v>
+        <v>2.997924470613914</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.979692065667856</v>
+        <v>2.97276309325569</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.901138598206122</v>
+        <v>2.895406952113464</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.935952488257791</v>
+        <v>2.934815924479543</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.999655467061926</v>
+        <v>3.001984333960062</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.004355252452578</v>
+        <v>3.007936984856351</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.885941582031752</v>
+        <v>2.883134745750094</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2.921901881433672</v>
+        <v>2.922461561020774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3.010134608272162</v>
+        <v>3.01005597726216</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.01581773847701</v>
+        <v>3.010025763098688</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.958308406564343</v>
+        <v>2.958894779783674</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.972238753036359</v>
+        <v>2.973716061369887</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.091717564438901</v>
+        <v>3.095913045066793</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.131299646391613</v>
+        <v>3.127832786991554</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.997414105049699</v>
+        <v>2.996122568040564</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.022789426230378</v>
+        <v>3.022525410159123</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.086784883146436</v>
+        <v>3.087014959887418</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.107900389345069</v>
+        <v>3.112299427846496</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.964102460212497</v>
+        <v>2.962204166229054</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2.986051546965026</v>
+        <v>2.985734880874938</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3.079432668002105</v>
+        <v>3.076497373976787</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>3.10214655395328</v>
+        <v>3.102693802015568</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.004102014422603</v>
+        <v>3.008718251741486</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.014510083529589</v>
+        <v>3.013810822533848</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.086057523788248</v>
+        <v>3.082114657486339</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.204831780893591</v>
+        <v>3.205638403952225</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.013607962723581</v>
+        <v>3.016414456018266</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.025557650355073</v>
+        <v>3.028861126076759</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>3.117275889462563</v>
+        <v>3.116852810066617</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.195211216492708</v>
+        <v>3.193983725419442</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.024189017379132</v>
+        <v>3.023952681273893</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3.033187659592858</v>
+        <v>3.032327158860394</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3.117973560248619</v>
+        <v>3.115729558710039</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>3.21198209796463</v>
+        <v>3.209760874529084</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.098392647904402</v>
+        <v>3.100805455785606</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.101390491620962</v>
+        <v>3.101943262826152</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.201149797102596</v>
+        <v>3.194388469754243</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.304023507396101</v>
+        <v>3.309967132430812</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.102262065673475</v>
+        <v>3.09993893934532</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.111301406959743</v>
+        <v>3.119751203049784</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.22428278274224</v>
+        <v>3.219977048226476</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.266263074405547</v>
+        <v>3.266428115965315</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.086363073098169</v>
+        <v>3.086850014571578</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.096195857935303</v>
+        <v>3.094822301917374</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.197213494341362</v>
+        <v>3.192952447468503</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.269306654762856</v>
+        <v>3.272790348040088</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>3.316204268223007</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>3.248414147399425</v>
+        <v>3.248414147399424</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.10347514806785</v>
+        <v>3.101082545900185</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.010670260188682</v>
+        <v>3.016768075094869</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.231304269213341</v>
+        <v>3.230728403099814</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.199068296441832</v>
+        <v>3.202494678339992</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.14412235647017</v>
+        <v>3.144966869172804</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.017256223490785</v>
+        <v>3.016686471064671</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.258331733477064</v>
+        <v>3.251450102871876</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.20676569574852</v>
+        <v>3.205218284617986</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.133299915225828</v>
+        <v>3.13693272581045</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.030487389414076</v>
+        <v>3.032902154069802</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3.266912765073087</v>
+        <v>3.259598347074261</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>3.214634713429073</v>
+        <v>3.215666574306279</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.1851334474035</v>
+        <v>3.186456586229183</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.120804038257949</v>
+        <v>3.126969901877525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.381891594936118</v>
+        <v>3.375705268439275</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.301923233240992</v>
+        <v>3.301750514236657</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.234726276291462</v>
+        <v>3.234061947158152</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.123620016760138</v>
+        <v>3.123597281417372</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.424270189232427</v>
+        <v>3.422788333723411</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.286353911983449</v>
+        <v>3.282800958788079</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.195582474579396</v>
+        <v>3.19582387493884</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.105399206077284</v>
+        <v>3.108173284798922</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3.378709309380449</v>
+        <v>3.374318808090763</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>3.280189034454917</v>
+        <v>3.282862967245306</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>3.209413864596447</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.153217917415509</v>
+        <v>3.153217917415508</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>3.294243593418147</v>
@@ -1089,7 +1089,7 @@
         <v>3.284236852384772</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>3.159284715654941</v>
+        <v>3.159284715654942</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>3.303647292316705</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.233983605331598</v>
+        <v>3.239584370648588</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.173528729279552</v>
+        <v>3.178649312001913</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.132175371564214</v>
+        <v>3.134342552112266</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.099045330631542</v>
+        <v>3.09820167997729</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.218988287243738</v>
+        <v>3.215276932463411</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.113736172752011</v>
+        <v>3.113992892164682</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>3.188963426294378</v>
+        <v>3.188255961535523</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.123446026284948</v>
+        <v>3.115142881176931</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.247886964754284</v>
+        <v>3.250492746680869</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3.169436818527879</v>
+        <v>3.171084341090341</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3.186523935846608</v>
+        <v>3.187092762894111</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>3.123150944340161</v>
+        <v>3.120140826794563</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.381454272450136</v>
+        <v>3.382749440671528</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.343020916028695</v>
+        <v>3.344348066073986</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.294462812354475</v>
+        <v>3.300040072119639</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.212023653080693</v>
+        <v>3.20752417417676</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.373206972164662</v>
+        <v>3.37885403014657</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.263453705323247</v>
+        <v>3.256006062898288</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.366835536174233</v>
+        <v>3.376610969419373</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.202396061959755</v>
+        <v>3.197760029588486</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.35801880495048</v>
+        <v>3.354960920040572</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3.281050152488408</v>
+        <v>3.278869061406983</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3.303597865325892</v>
+        <v>3.309612814463472</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>3.188403203923388</v>
+        <v>3.189047653772743</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.066100542315009</v>
+        <v>3.063804150480841</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.021690418152322</v>
+        <v>3.022404526185169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.126126209797743</v>
+        <v>3.125423275486972</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.164519639785381</v>
+        <v>3.168476378925403</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.065686547234133</v>
+        <v>3.067524432809159</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.027517546160062</v>
+        <v>3.029899805842849</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.148795862631113</v>
+        <v>3.142547018553089</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.167819918813813</v>
+        <v>3.169290892074117</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.073431429426841</v>
+        <v>3.073811516155855</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3.034806837525842</v>
+        <v>3.033577763262824</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3.144835241659653</v>
+        <v>3.144414790610153</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>3.175258441149978</v>
+        <v>3.173935772900845</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.116447814484658</v>
+        <v>3.115228907631216</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.076902731651615</v>
+        <v>3.077416581538567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.188987875224426</v>
+        <v>3.188727008316589</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.223994303250272</v>
+        <v>3.22583812592094</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.114900972831898</v>
+        <v>3.11639435633901</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.082616064401461</v>
+        <v>3.081409812181417</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.208617939951898</v>
+        <v>3.20538328157699</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.210555892457197</v>
+        <v>3.209876966171371</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.109169734875087</v>
+        <v>3.109648192509696</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3.072796619651381</v>
+        <v>3.070403113767616</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3.189062525946659</v>
+        <v>3.189407128851784</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>3.210268367697968</v>
+        <v>3.20977294932556</v>
       </c>
     </row>
     <row r="19">
